--- a/decisionmaker/preflop.xlsx
+++ b/decisionmaker/preflop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="57" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="12R2" sheetId="71" r:id="rId1"/>
@@ -71,13 +71,16 @@
     <sheet name="5R2C3" sheetId="74" r:id="rId62"/>
     <sheet name="42R5" sheetId="75" r:id="rId63"/>
     <sheet name="42R6" sheetId="76" r:id="rId64"/>
+    <sheet name="52" sheetId="77" r:id="rId65"/>
+    <sheet name="32R5C6" sheetId="78" r:id="rId66"/>
+    <sheet name="32R5" sheetId="79" r:id="rId67"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="175">
   <si>
     <t>A2s</t>
   </si>
@@ -1250,9 +1253,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="184"/>
+    <col min="1" max="16384" width="9.140625" style="184"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -37377,8 +37380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41519,7 +41522,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42529,6 +42532,1885 @@
         <v>0.08</v>
       </c>
       <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="183">
+        <v>99</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="183">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="183">
+        <v>77</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="183">
+        <v>66</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="183">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="183">
+        <v>44</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="183">
+        <v>22</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="183">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="183">
+        <v>88</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="183">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="183">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="183">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="183">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="183">
+        <v>88</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="183">
+        <v>77</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="183">
+        <v>66</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="183">
+        <v>55</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
         <v>0</v>
       </c>
     </row>
@@ -43732,8 +45614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45448,6 +47330,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45455,7 +47338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>

--- a/decisionmaker/preflop.xlsx
+++ b/decisionmaker/preflop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="57" activeTab="66"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="61" activeTab="71"/>
   </bookViews>
   <sheets>
     <sheet name="12R2" sheetId="71" r:id="rId1"/>
@@ -74,13 +74,18 @@
     <sheet name="52" sheetId="77" r:id="rId65"/>
     <sheet name="32R5C6" sheetId="78" r:id="rId66"/>
     <sheet name="32R5" sheetId="79" r:id="rId67"/>
+    <sheet name="12R6" sheetId="81" r:id="rId68"/>
+    <sheet name="12R4" sheetId="82" r:id="rId69"/>
+    <sheet name="5R3C4" sheetId="83" r:id="rId70"/>
+    <sheet name="6R3C4" sheetId="84" r:id="rId71"/>
+    <sheet name="22R5" sheetId="85" r:id="rId72"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="176">
   <si>
     <t>A2s</t>
   </si>
@@ -605,6 +610,9 @@
   </si>
   <si>
     <t>1.30</t>
+  </si>
+  <si>
+    <t>Kqs</t>
   </si>
 </sst>
 </file>
@@ -43778,8 +43786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44411,6 +44419,736 @@
         <v>0</v>
       </c>
       <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="183">
+        <v>99</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="183">
+        <v>88</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="183">
+        <v>77</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="183">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -45602,6 +46340,2109 @@
         <v>1</v>
       </c>
       <c r="D84" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="183">
+        <v>88</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="183">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="183">
+        <v>66</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="183">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="183">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="183" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="183" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="183" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="183">
+        <v>99</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="183" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="183">
+        <v>88</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="183">
+        <v>77</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="183" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="183">
+        <v>66</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="183" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="183" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="183">
+        <v>55</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="183">
+        <v>44</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="183">
+        <v>33</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="183">
+        <v>22</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="183">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="183">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="183">
+        <v>77</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="183">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
         <v>0</v>
       </c>
     </row>

--- a/decisionmaker/preflop.xlsx
+++ b/decisionmaker/preflop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="38" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="12R2" sheetId="71" r:id="rId1"/>
@@ -601,7 +601,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.30</t>
+    <t>1.41</t>
   </si>
 </sst>
 </file>
@@ -1250,9 +1250,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="184"/>
+    <col min="1" max="16384" width="9.140625" style="184"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28045,8 +28045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45455,7 +45455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>

--- a/decisionmaker/preflop.xlsx
+++ b/decisionmaker/preflop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="58" activeTab="70"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="68" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="8" r:id="rId1"/>
@@ -80,13 +80,16 @@
     <sheet name="Info" sheetId="55" r:id="rId71"/>
     <sheet name="R1R2" sheetId="32" r:id="rId72"/>
     <sheet name="R1R2R1A2" sheetId="33" r:id="rId73"/>
+    <sheet name="6R1R2" sheetId="88" r:id="rId74"/>
+    <sheet name="5C1" sheetId="89" r:id="rId75"/>
+    <sheet name="6C1R2" sheetId="91" r:id="rId76"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="175">
   <si>
     <t>A2s</t>
   </si>
@@ -610,7 +613,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.47</t>
+    <t>1.48</t>
   </si>
 </sst>
 </file>
@@ -7897,9 +7900,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="184"/>
+    <col min="1" max="16384" width="9.125" style="184"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -53178,6 +53181,1325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="183">
+        <v>99</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="183">
+        <v>88</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="183">
+        <v>77</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="183">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="183" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="183" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="183">
+        <v>55</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="183">
+        <v>44</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="183">
+        <v>33</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="183">
+        <v>22</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>

--- a/decisionmaker/preflop.xlsx
+++ b/decisionmaker/preflop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="68" activeTab="70"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10830" firstSheet="76" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="8" r:id="rId1"/>
@@ -83,13 +83,17 @@
     <sheet name="6R1R2" sheetId="88" r:id="rId74"/>
     <sheet name="5C1" sheetId="89" r:id="rId75"/>
     <sheet name="6C1R2" sheetId="91" r:id="rId76"/>
+    <sheet name="5R3R4" sheetId="92" r:id="rId77"/>
+    <sheet name="4R2R2" sheetId="93" r:id="rId78"/>
+    <sheet name="22R4" sheetId="94" r:id="rId79"/>
+    <sheet name="6C1R5" sheetId="95" r:id="rId80"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="175">
   <si>
     <t>A2s</t>
   </si>
@@ -613,7 +617,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.48</t>
+    <t>1.49</t>
   </si>
 </sst>
 </file>
@@ -7900,9 +7904,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="184"/>
+    <col min="1" max="16384" width="9.140625" style="184"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -54350,7 +54354,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54492,6 +54496,681 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="183">
+        <v>99</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="183">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="183">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="183">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -55047,6 +55726,203 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
